--- a/data/error_coding/responses_to_code.xlsx
+++ b/data/error_coding/responses_to_code.xlsx
@@ -5,25 +5,25 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Item 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Item 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Item 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Item 4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Item 5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Item 6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Item 7" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Item 8" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Item 9" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Item 10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Item 11" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Item 12" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Item 13" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Item 14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Item 15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Item 16" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Item 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Item 2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Item 3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Item 4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Item 5" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Item 6" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Item 7" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="Item 8" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="Item 9" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="Item 10" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="Item 11" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Item 12" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="Item 13" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="Item 14" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="Item 15" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="Item 16" sheetId="16" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="393">
   <si>
     <t xml:space="preserve">Response</t>
   </si>
@@ -550,21 +550,36 @@
     <t xml:space="preserve">330550000</t>
   </si>
   <si>
+    <t xml:space="preserve">copy_c</t>
+  </si>
+  <si>
     <t xml:space="preserve">770000000</t>
   </si>
   <si>
+    <t xml:space="preserve">copy_a</t>
+  </si>
+  <si>
     <t xml:space="preserve">000333440</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot pixel</t>
+  </si>
+  <si>
     <t xml:space="preserve">000330440</t>
   </si>
   <si>
+    <t xml:space="preserve">got one out of two transformations</t>
+  </si>
+  <si>
     <t xml:space="preserve">444333000</t>
   </si>
   <si>
     <t xml:space="preserve">300400000</t>
   </si>
   <si>
+    <t xml:space="preserve">reverse transformation?</t>
+  </si>
+  <si>
     <t xml:space="preserve">000434000</t>
   </si>
   <si>
@@ -580,6 +595,9 @@
     <t xml:space="preserve">330444000</t>
   </si>
   <si>
+    <t xml:space="preserve">merging of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">440330000</t>
   </si>
   <si>
@@ -589,12 +607,21 @@
     <t xml:space="preserve">033044000</t>
   </si>
   <si>
+    <t xml:space="preserve">copy and shift</t>
+  </si>
+  <si>
     <t xml:space="preserve">550330000</t>
   </si>
   <si>
+    <t xml:space="preserve">copy and color transformation</t>
+  </si>
+  <si>
     <t xml:space="preserve">000300440</t>
   </si>
   <si>
+    <t xml:space="preserve">partial recovery of one of the two rules</t>
+  </si>
+  <si>
     <t xml:space="preserve">000330400</t>
   </si>
   <si>
@@ -604,19 +631,34 @@
     <t xml:space="preserve">330000440</t>
   </si>
   <si>
+    <t xml:space="preserve">copy and partial shift</t>
+  </si>
+  <si>
     <t xml:space="preserve">000440000</t>
   </si>
   <si>
+    <t xml:space="preserve">partial copy</t>
+  </si>
+  <si>
     <t xml:space="preserve">333443333</t>
   </si>
   <si>
     <t xml:space="preserve">000444333</t>
   </si>
   <si>
+    <t xml:space="preserve">color flip</t>
+  </si>
+  <si>
     <t xml:space="preserve">333000000</t>
   </si>
   <si>
     <t xml:space="preserve">000443000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kind of a mix between b and c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong task</t>
   </si>
   <si>
     <t xml:space="preserve">0100155555000000000000000</t>
@@ -1261,12 +1303,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1282,8 +1328,114 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1295,113 +1447,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1417,7 +1569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1430,297 +1582,297 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>215</v>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>216</v>
+      <c r="B3" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>217</v>
+      <c r="B4" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>218</v>
+      <c r="B5" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>219</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>220</v>
+      <c r="B7" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>221</v>
+      <c r="B8" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>222</v>
+      <c r="B9" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>223</v>
+      <c r="B10" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>224</v>
+      <c r="B11" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>225</v>
+      <c r="B12" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>226</v>
+      <c r="B13" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>227</v>
+      <c r="B14" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>228</v>
+      <c r="B15" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>229</v>
+      <c r="B16" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>230</v>
+      <c r="B17" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>231</v>
+      <c r="B18" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>232</v>
+      <c r="B19" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>233</v>
+      <c r="B20" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>234</v>
+      <c r="B21" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>235</v>
+      <c r="B22" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>236</v>
+      <c r="B23" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>237</v>
+      <c r="B24" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>238</v>
+      <c r="B25" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>239</v>
+      <c r="B26" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>240</v>
+      <c r="B27" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>241</v>
+      <c r="B28" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>242</v>
+      <c r="B29" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>243</v>
+      <c r="B30" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>244</v>
+      <c r="B31" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>245</v>
+      <c r="B32" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>246</v>
+      <c r="B33" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>247</v>
+      <c r="B34" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>248</v>
+      <c r="B35" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>249</v>
+      <c r="B36" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1748,241 +1900,241 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>250</v>
+      <c r="B2" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>251</v>
+      <c r="B3" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>252</v>
+      <c r="B4" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>253</v>
+      <c r="B5" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>254</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>255</v>
+      <c r="B7" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>256</v>
+      <c r="B8" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>257</v>
+      <c r="B9" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>258</v>
+      <c r="B10" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>259</v>
+      <c r="B11" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>260</v>
+      <c r="B12" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>261</v>
+      <c r="B13" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>262</v>
+      <c r="B14" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>263</v>
+      <c r="B15" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>264</v>
+      <c r="B16" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>265</v>
+      <c r="B17" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>266</v>
+      <c r="B18" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>267</v>
+      <c r="B19" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>268</v>
+      <c r="B20" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>269</v>
+      <c r="B21" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>270</v>
+      <c r="B22" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>271</v>
+      <c r="B23" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>272</v>
+      <c r="B24" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>273</v>
+      <c r="B25" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>274</v>
+      <c r="B26" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>275</v>
+      <c r="B27" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>276</v>
+      <c r="B28" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>277</v>
+      <c r="B29" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2010,273 +2162,273 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>278</v>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>279</v>
+      <c r="B3" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>280</v>
+      <c r="B4" s="1" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>281</v>
+      <c r="B5" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>282</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>283</v>
+      <c r="B7" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>284</v>
+      <c r="B8" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>285</v>
+      <c r="B9" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>286</v>
+      <c r="B10" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>287</v>
+      <c r="B11" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>288</v>
+      <c r="B12" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>289</v>
+      <c r="B13" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>290</v>
+      <c r="B14" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>291</v>
+      <c r="B15" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>292</v>
+      <c r="B16" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>293</v>
+      <c r="B17" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>294</v>
+      <c r="B18" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>295</v>
+      <c r="B19" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>215</v>
+      <c r="B20" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>296</v>
+      <c r="B21" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>297</v>
+      <c r="B22" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>298</v>
+      <c r="B23" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>299</v>
+      <c r="B24" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>300</v>
+      <c r="B25" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>301</v>
+      <c r="B26" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>302</v>
+      <c r="B27" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>303</v>
+      <c r="B28" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>304</v>
+      <c r="B29" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>305</v>
+      <c r="B30" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>306</v>
+      <c r="B31" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>307</v>
+      <c r="B32" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>308</v>
+      <c r="B33" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2304,169 +2456,169 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>309</v>
+      <c r="B2" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>310</v>
+      <c r="B3" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>311</v>
+      <c r="B4" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>312</v>
+      <c r="B5" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>313</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>314</v>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>315</v>
+      <c r="B8" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>316</v>
+      <c r="B9" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>317</v>
+      <c r="B10" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>318</v>
+      <c r="B11" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>319</v>
+      <c r="B12" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>320</v>
+      <c r="B13" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>321</v>
+      <c r="B14" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>322</v>
+      <c r="B15" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>323</v>
+      <c r="B16" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>324</v>
+      <c r="B17" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>325</v>
+      <c r="B18" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>326</v>
+      <c r="B19" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>327</v>
+      <c r="B20" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2494,137 +2646,137 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>328</v>
+      <c r="B2" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>329</v>
+      <c r="B3" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>310</v>
+      <c r="B4" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>330</v>
+      <c r="B5" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>331</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>332</v>
+      <c r="B7" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>333</v>
+      <c r="B8" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>334</v>
+      <c r="B9" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>335</v>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>336</v>
+      <c r="B11" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>337</v>
+      <c r="B12" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>338</v>
+      <c r="B13" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>339</v>
+      <c r="B14" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>340</v>
+      <c r="B15" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>341</v>
+      <c r="B16" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2639,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2652,185 +2804,185 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>342</v>
+      <c r="B2" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>343</v>
+      <c r="B3" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>344</v>
+      <c r="B4" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>345</v>
+      <c r="B5" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>346</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>347</v>
+      <c r="B7" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>348</v>
+      <c r="B8" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>349</v>
+      <c r="B9" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>337</v>
+      <c r="B10" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>310</v>
+      <c r="B11" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>350</v>
+      <c r="B12" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>351</v>
+      <c r="B13" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>352</v>
+      <c r="B14" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>353</v>
+      <c r="B15" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>354</v>
+      <c r="B16" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>355</v>
+      <c r="B17" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>356</v>
+      <c r="B18" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>357</v>
+      <c r="B19" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>358</v>
+      <c r="B20" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>359</v>
+      <c r="B21" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>360</v>
+      <c r="B22" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2858,185 +3010,185 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>361</v>
+      <c r="B2" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>362</v>
+      <c r="B3" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>363</v>
+      <c r="B4" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>364</v>
+      <c r="B5" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>365</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>366</v>
+      <c r="B7" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>367</v>
+      <c r="B8" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>368</v>
+      <c r="B9" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>369</v>
+      <c r="B10" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>370</v>
+      <c r="B11" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>337</v>
+      <c r="B12" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>250</v>
+      <c r="B13" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>371</v>
+      <c r="B14" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>283</v>
+      <c r="B15" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>372</v>
+      <c r="B16" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>373</v>
+      <c r="B17" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>374</v>
+      <c r="B18" s="1" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>375</v>
+      <c r="B19" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>376</v>
+      <c r="B20" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>377</v>
+      <c r="B21" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>378</v>
+      <c r="B22" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3063,206 +3215,206 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3278,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3290,214 +3442,214 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3513,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3525,274 +3677,274 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3808,209 +3960,209 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4026,7 +4178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4039,288 +4191,288 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4336,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4349,304 +4501,304 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4662,246 +4814,375 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.5"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>185</v>
+      <c r="B19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>186</v>
+      <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>188</v>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>189</v>
+      <c r="B23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>190</v>
+      <c r="B24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>191</v>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>192</v>
+      <c r="B26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>193</v>
+      <c r="B27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +5197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4929,185 +5210,185 @@
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>194</v>
+      <c r="B2" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>195</v>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>196</v>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>197</v>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>198</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>199</v>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>200</v>
+      <c r="B8" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>201</v>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>202</v>
+      <c r="B10" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>203</v>
+      <c r="B11" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>204</v>
+      <c r="B12" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>205</v>
+      <c r="B13" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>206</v>
+      <c r="B14" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>207</v>
+      <c r="B15" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>208</v>
+      <c r="B16" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>209</v>
+      <c r="B17" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>210</v>
+      <c r="B18" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>211</v>
+      <c r="B19" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>212</v>
+      <c r="B20" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>213</v>
+      <c r="B21" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>214</v>
+      <c r="B22" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/error_coding/responses_to_code.xlsx
+++ b/data/error_coding/responses_to_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Item 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="389">
   <si>
     <t xml:space="preserve">Response</t>
   </si>
@@ -136,12 +136,12 @@
     <t xml:space="preserve">700000770</t>
   </si>
   <si>
+    <t xml:space="preserve">could be partial, so then considered concept, but forgetting one element in the top row</t>
+  </si>
+  <si>
     <t xml:space="preserve">700770700</t>
   </si>
   <si>
-    <t xml:space="preserve">could be partial, so then considered concept, but forgetting one element in the top row</t>
-  </si>
-  <si>
     <t xml:space="preserve">555555555</t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">505505000</t>
   </si>
   <si>
-    <t xml:space="preserve">duplicate</t>
+    <t xml:space="preserve">duplicate_C</t>
   </si>
   <si>
     <t xml:space="preserve">partial duplicate C, changed to next color 4 to 5</t>
@@ -253,6 +253,9 @@
     <t xml:space="preserve">000500500</t>
   </si>
   <si>
+    <t xml:space="preserve">duplicate_B</t>
+  </si>
+  <si>
     <t xml:space="preserve">partial duplicate B, changed to next color 4 to 5</t>
   </si>
   <si>
@@ -313,15 +316,30 @@
     <t xml:space="preserve">660600600</t>
   </si>
   <si>
+    <t xml:space="preserve">partially correct, wrong color, but why wrong color?</t>
+  </si>
+  <si>
     <t xml:space="preserve">000000100</t>
   </si>
   <si>
     <t xml:space="preserve">700770770</t>
   </si>
   <si>
+    <t xml:space="preserve">A or C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial matrix of A and C, one pixel off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or duplicate A or B, but one pixel off</t>
+  </si>
+  <si>
     <t xml:space="preserve">000777700</t>
   </si>
   <si>
+    <t xml:space="preserve">correct?! Or concept</t>
+  </si>
+  <si>
     <t xml:space="preserve">007007077</t>
   </si>
   <si>
@@ -346,6 +364,15 @@
     <t xml:space="preserve">777700700</t>
   </si>
   <si>
+    <t xml:space="preserve">or matrix (move middle col pixel to top, extend top row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B or C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove a pixel from the mid row</t>
+  </si>
+  <si>
     <t xml:space="preserve">070070070</t>
   </si>
   <si>
@@ -353,6 +380,9 @@
   </si>
   <si>
     <t xml:space="preserve">770770700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not sure, could be matrix</t>
   </si>
   <si>
     <t xml:space="preserve">030030077</t>
@@ -1293,11 +1323,11 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1457,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1448,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,7 +1518,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1526,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1542,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,7 +1550,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,7 +1582,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,7 +1622,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,7 +1646,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1678,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,7 +1686,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,7 +1702,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1710,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,7 +1718,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,7 +1726,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1734,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,7 +1742,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1775,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1766,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1798,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,7 +1836,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1844,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1822,7 +1852,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1860,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1838,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,7 +1892,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1870,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,7 +1908,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,7 +1924,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1932,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1910,7 +1940,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +1956,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,7 +1964,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,7 +1972,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +1980,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,7 +1988,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1996,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,7 +2004,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +2012,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2037,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2028,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,7 +2074,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,7 +2082,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,7 +2114,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2154,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,7 +2162,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,7 +2170,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,7 +2186,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,7 +2202,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,7 +2210,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2188,7 +2218,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,7 +2226,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2234,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,7 +2242,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2250,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,7 +2258,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2266,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,7 +2274,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2282,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2260,7 +2290,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2298,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2331,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2322,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,7 +2376,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,7 +2400,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2408,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2416,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,7 +2448,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,7 +2472,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2480,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2496,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2491,7 +2521,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2512,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2520,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2536,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2584,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,7 +2622,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2608,7 +2638,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,7 +2646,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2679,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2670,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2708,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,7 +2716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2724,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,7 +2756,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,7 +2764,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2772,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,7 +2780,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,7 +2796,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2774,7 +2804,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,7 +2820,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,7 +2836,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,7 +2844,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,7 +2852,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +2860,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2885,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2876,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2927,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,7 +2943,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,7 +2951,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,7 +2959,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,7 +2967,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2940,7 +2975,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,7 +2983,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2956,7 +2991,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,7 +3007,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,7 +3023,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,7 +3047,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3055,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,7 +3063,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,7 +3071,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3055,16 +3090,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +3276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
@@ -3249,7 +3284,10 @@
         <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,15 +3295,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3288,7 +3324,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
@@ -3520,10 +3556,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
@@ -3648,10 +3684,10 @@
         <v>71</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,13 +3695,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
@@ -3684,13 +3720,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,7 +3734,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
@@ -3709,13 +3745,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,13 +3759,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,7 +3773,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
@@ -3748,7 +3784,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
@@ -3759,13 +3795,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,13 +3809,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,13 +3823,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3814,14 +3850,15 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,7 +3880,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,13 +3896,19 @@
       <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,71 +3916,122 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,13 +4041,19 @@
       <c r="B14" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,15 +4061,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,7 +4086,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,6 +4102,12 @@
       <c r="B19" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -3989,13 +4116,22 @@
       <c r="B20" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,7 +4139,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>104</v>
+        <v>113</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,7 +4150,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>105</v>
+        <v>114</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4033,10 +4178,15 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.88"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4057,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4089,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4097,7 +4247,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4105,7 +4255,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,7 +4263,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4121,7 +4271,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4129,7 +4279,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,7 +4303,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,7 +4319,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,7 +4327,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,7 +4335,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4193,7 +4343,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4351,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4209,7 +4359,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,7 +4367,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,7 +4375,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,7 +4383,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,7 +4391,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,7 +4399,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4407,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,7 +4415,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4273,7 +4423,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,7 +4431,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4289,7 +4439,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,7 +4447,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,7 +4455,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,7 +4463,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,7 +4471,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4346,7 +4496,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4367,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +4541,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,7 +4549,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4557,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,7 +4565,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,7 +4573,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,7 +4581,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4439,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4463,7 +4613,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4471,7 +4621,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,7 +4629,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,7 +4637,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,7 +4653,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,7 +4677,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,7 +4685,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,7 +4693,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,7 +4701,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,7 +4709,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,7 +4717,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,7 +4725,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,7 +4733,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +4741,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,7 +4749,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,7 +4757,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4615,7 +4765,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4631,7 +4781,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,7 +4789,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4797,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4672,7 +4822,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4693,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,7 +4859,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +4867,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,7 +4875,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,7 +4891,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,7 +4899,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4907,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4915,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,7 +4947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +4955,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +4963,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +4971,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,7 +4979,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,7 +4987,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +5003,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +5019,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,7 +5027,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,7 +5035,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,7 +5043,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4926,7 +5076,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4947,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,7 +5105,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +5113,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +5121,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,7 +5137,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,7 +5153,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,7 +5161,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +5169,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,7 +5177,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5051,7 +5201,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +5209,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5217,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,7 +5241,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,7 +5249,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,7 +5257,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/error_coding/responses_to_code.xlsx
+++ b/data/error_coding/responses_to_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Item 1" sheetId="1" state="visible" r:id="rId3"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="415">
   <si>
     <t xml:space="preserve">Response</t>
   </si>
@@ -727,15 +727,27 @@
     <t xml:space="preserve">5550000500005005550000500</t>
   </si>
   <si>
+    <t xml:space="preserve">sloppy drawing</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000005555050050555500000</t>
   </si>
   <si>
+    <t xml:space="preserve">b shape c color</t>
+  </si>
+  <si>
     <t xml:space="preserve">5500000500005000000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">partial copy (might have given up)</t>
+  </si>
+  <si>
     <t xml:space="preserve">5550000500005005050000500</t>
   </si>
   <si>
+    <t xml:space="preserve">a hint of concepts</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000055500505005050055500</t>
   </si>
   <si>
@@ -748,18 +760,27 @@
     <t xml:space="preserve">5550000500005000050055500</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot to close</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000000555005000055500000</t>
   </si>
   <si>
     <t xml:space="preserve">5500000500005005550000500</t>
   </si>
   <si>
+    <t xml:space="preserve">imperfect copy</t>
+  </si>
+  <si>
     <t xml:space="preserve">5000000500000005000000500</t>
   </si>
   <si>
     <t xml:space="preserve">5550000500005005550055500</t>
   </si>
   <si>
+    <t xml:space="preserve">some confusion in drawing rectangle</t>
+  </si>
+  <si>
     <t xml:space="preserve">5500005000050005500005000</t>
   </si>
   <si>
@@ -775,6 +796,9 @@
     <t xml:space="preserve">0000055550500505555000000</t>
   </si>
   <si>
+    <t xml:space="preserve">mix of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">5500000500005005500000500</t>
   </si>
   <si>
@@ -784,9 +808,15 @@
     <t xml:space="preserve">5555050050500505550000050</t>
   </si>
   <si>
+    <t xml:space="preserve">drew rectangle but copied extra pixel</t>
+  </si>
+  <si>
     <t xml:space="preserve">5555550005555550000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">mixed inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">5555550505555555555555555</t>
   </si>
   <si>
@@ -934,6 +964,9 @@
     <t xml:space="preserve">4444433330600002200055500</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; right bars</t>
+  </si>
+  <si>
     <t xml:space="preserve">6000033330444440000055500</t>
   </si>
   <si>
@@ -946,6 +979,9 @@
     <t xml:space="preserve">0000022000555006666033333</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot one color</t>
+  </si>
+  <si>
     <t xml:space="preserve">0002200555000064444403333</t>
   </si>
   <si>
@@ -1066,6 +1102,9 @@
     <t xml:space="preserve">6666666666660666666660666</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot pixels where c had other color</t>
+  </si>
+  <si>
     <t xml:space="preserve">0005500055000000000500055</t>
   </si>
   <si>
@@ -1075,18 +1114,30 @@
     <t xml:space="preserve">6666676666660660000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">maybe started copying c?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000070000000000000700000</t>
   </si>
   <si>
+    <t xml:space="preserve">copied two pixels from c?</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666676666666666676666666</t>
   </si>
   <si>
     <t xml:space="preserve">0000070000006000000706000</t>
   </si>
   <si>
+    <t xml:space="preserve">mixup of colors and missing pixels</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666066666666666666666666</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot one pixel</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000000000006000000006000</t>
   </si>
   <si>
@@ -1096,12 +1147,18 @@
     <t xml:space="preserve">6666660666666666666660666</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot two pixels</t>
+  </si>
+  <si>
     <t xml:space="preserve">4444476666448446666748666</t>
   </si>
   <si>
     <t xml:space="preserve">6666666866666676666666666</t>
   </si>
   <si>
+    <t xml:space="preserve">apparent relation to c</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666677777668666666766666</t>
   </si>
   <si>
@@ -1165,6 +1222,9 @@
     <t xml:space="preserve">0000006060060600606000000</t>
   </si>
   <si>
+    <t xml:space="preserve">correct?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000006660060600000000000</t>
   </si>
   <si>
@@ -1174,6 +1234,9 @@
     <t xml:space="preserve">0060006060600060606000600</t>
   </si>
   <si>
+    <t xml:space="preserve">mix of a and c?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0031300313003030031300303</t>
   </si>
   <si>
@@ -1214,6 +1277,9 @@
   </si>
   <si>
     <t xml:space="preserve">0070007070700070707000707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus extra pixel</t>
   </si>
 </sst>
 </file>
@@ -1575,11 +1641,16 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.11"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1602,13 +1673,25 @@
       <c r="B2" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,7 +1699,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,7 +1713,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1632,7 +1727,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1738,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,7 +1749,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,7 +1763,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,7 +1777,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,15 +1788,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>243</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,7 +1816,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1696,7 +1830,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1841,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1712,7 +1852,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1863,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1728,23 +1874,41 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,7 +1916,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,7 +1930,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,7 +1944,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,7 +1955,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,7 +1966,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1977,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1988,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1999,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,7 +2010,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,7 +2021,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +2032,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,7 +2043,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,7 +2054,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,7 +2065,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,7 +2076,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1872,7 +2087,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,7 +2144,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1934,7 +2152,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,7 +2176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,7 +2216,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2006,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,7 +2240,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,7 +2248,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,7 +2264,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,7 +2272,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2288,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,7 +2296,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,7 +2304,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,7 +2312,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,7 +2320,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2110,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,7 +2344,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,7 +2352,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2156,10 +2374,16 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.03"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2175,100 +2399,118 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>308</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>313</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2518,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2284,7 +2532,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,7 +2540,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,7 +2548,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,7 +2556,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +2564,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2332,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2340,7 +2588,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,7 +2596,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2604,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,7 +2612,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,7 +2620,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2380,7 +2628,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,7 +2636,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,7 +2652,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2660,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2668,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +2676,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,7 +2770,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,7 +2826,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2842,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,7 +2850,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2640,10 +2888,16 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.51"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2664,7 +2918,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,7 +2932,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2680,7 +2943,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +2957,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,7 +2971,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,15 +2985,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>360</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,7 +3013,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>348</v>
+        <v>363</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,15 +3027,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>365</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>350</v>
+        <v>367</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +3055,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,7 +3066,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>352</v>
+        <v>369</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,15 +3080,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>371</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>354</v>
+        <v>372</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +3105,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2830,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +3186,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,7 +3194,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,7 +3202,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,7 +3218,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2894,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,7 +3234,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2918,7 +3250,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,7 +3258,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,7 +3274,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,7 +3290,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +3298,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +3306,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +3314,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3003,11 +3335,17 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.68"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3028,7 +3366,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>375</v>
+        <v>394</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3044,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,7 +3393,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>398</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,7 +3407,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>400</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,7 +3421,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,7 +3429,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3084,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,7 +3461,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3116,7 +3469,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,7 +3488,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,7 +3502,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3518,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3526,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,7 +3534,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3542,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3188,7 +3550,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>392</v>
+        <v>413</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3679,6 +4047,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,7 +5189,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/data/error_coding/responses_to_code.xlsx
+++ b/data/error_coding/responses_to_code.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="426">
   <si>
     <t xml:space="preserve">Response</t>
   </si>
@@ -358,6 +358,9 @@
     <t xml:space="preserve">030030077</t>
   </si>
   <si>
+    <t xml:space="preserve">color flip</t>
+  </si>
+  <si>
     <t xml:space="preserve">220270000</t>
   </si>
   <si>
@@ -367,48 +370,87 @@
     <t xml:space="preserve">060060077</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong colors</t>
+  </si>
+  <si>
     <t xml:space="preserve">050050110</t>
   </si>
   <si>
+    <t xml:space="preserve">similar but wrong colors and orientation</t>
+  </si>
+  <si>
     <t xml:space="preserve">030030770</t>
   </si>
   <si>
+    <t xml:space="preserve">similar but wrong orientation</t>
+  </si>
+  <si>
     <t xml:space="preserve">050050033</t>
   </si>
   <si>
     <t xml:space="preserve">550001001</t>
   </si>
   <si>
+    <t xml:space="preserve">mix of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">011050050</t>
   </si>
   <si>
+    <t xml:space="preserve">flip inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">500500110</t>
   </si>
   <si>
+    <t xml:space="preserve">copy_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shifted copy</t>
+  </si>
+  <si>
     <t xml:space="preserve">070070011</t>
   </si>
   <si>
     <t xml:space="preserve">033070070</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong orientation</t>
+  </si>
+  <si>
     <t xml:space="preserve">010010550</t>
   </si>
   <si>
+    <t xml:space="preserve">flipped c</t>
+  </si>
+  <si>
     <t xml:space="preserve">555100100</t>
   </si>
   <si>
+    <t xml:space="preserve">odd combination of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">770003003</t>
   </si>
   <si>
+    <t xml:space="preserve">colorflip b</t>
+  </si>
+  <si>
     <t xml:space="preserve">007007033</t>
   </si>
   <si>
+    <t xml:space="preserve">misplaced line</t>
+  </si>
+  <si>
     <t xml:space="preserve">000007007</t>
   </si>
   <si>
     <t xml:space="preserve">300300770</t>
   </si>
   <si>
+    <t xml:space="preserve">colorflip and misplacement</t>
+  </si>
+  <si>
     <t xml:space="preserve">030030044</t>
   </si>
   <si>
@@ -550,9 +592,6 @@
     <t xml:space="preserve">330550000</t>
   </si>
   <si>
-    <t xml:space="preserve">copy_c</t>
-  </si>
-  <si>
     <t xml:space="preserve">770000000</t>
   </si>
   <si>
@@ -646,9 +685,6 @@
     <t xml:space="preserve">000444333</t>
   </si>
   <si>
-    <t xml:space="preserve">color flip</t>
-  </si>
-  <si>
     <t xml:space="preserve">333000000</t>
   </si>
   <si>
@@ -794,9 +830,6 @@
   </si>
   <si>
     <t xml:space="preserve">0000055550500505555000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mix of inputs</t>
   </si>
   <si>
     <t xml:space="preserve">5500000500005005500000500</t>
@@ -1641,7 +1674,7 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -1671,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,13 +1718,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,13 +1732,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,13 +1746,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>61</v>
@@ -1738,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>61</v>
@@ -1749,13 +1782,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,13 +1796,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
@@ -1788,13 +1821,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,13 +1835,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,13 +1849,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,7 +1863,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
@@ -1841,7 +1874,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
@@ -1852,7 +1885,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
@@ -1863,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
@@ -1874,13 +1907,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,13 +1921,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,13 +1935,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1916,13 +1949,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,13 +1963,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,7 +1977,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
@@ -1955,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -1966,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
@@ -1977,10 +2010,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +2021,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
@@ -1999,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
@@ -2010,7 +2043,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
@@ -2021,7 +2054,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>5</v>
@@ -2032,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>5</v>
@@ -2043,7 +2076,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>5</v>
@@ -2054,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
@@ -2065,7 +2098,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
@@ -2076,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
@@ -2087,7 +2120,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>5</v>
@@ -2136,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2152,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2160,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,7 +2201,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2176,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,7 +2297,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,7 +2305,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,7 +2321,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,7 +2329,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,7 +2337,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2353,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,7 +2377,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2453,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2428,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,13 +2485,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2499,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,13 +2507,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2496,13 +2529,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2543,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,13 +2551,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,7 +2573,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2548,7 +2581,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,7 +2589,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2597,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2605,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2580,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2621,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,7 +2629,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,7 +2637,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2612,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,7 +2653,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,7 +2661,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,7 +2677,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,7 +2685,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,7 +2693,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,7 +2701,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2676,7 +2709,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +2795,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,7 +2803,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2811,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2819,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2827,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +2851,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +2859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +2867,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,7 +2875,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +2883,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,7 +2899,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2918,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -2943,13 +2976,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,13 +2990,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,13 +3004,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,13 +3018,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,13 +3060,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,13 +3074,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
@@ -3066,13 +3099,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
@@ -3091,13 +3124,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +3138,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
@@ -3154,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3194,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,7 +3251,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3234,7 +3267,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,7 +3275,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3250,7 +3283,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,7 +3291,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,7 +3299,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3315,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,7 +3323,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3298,7 +3331,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,7 +3339,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +3369,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3366,10 +3399,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,7 +3410,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,7 +3418,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,13 +3426,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,13 +3440,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,7 +3454,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,7 +3470,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3478,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3502,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
@@ -3480,7 +3513,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3488,13 +3521,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3502,7 +3535,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,7 +3543,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,7 +3551,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3526,7 +3559,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,7 +3567,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,7 +3575,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,13 +3583,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4553,11 +4586,17 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -4580,13 +4619,22 @@
       <c r="B2" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,7 +4642,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,13 +4655,22 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,23 +4678,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,7 +4720,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,7 +4734,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,23 +4748,41 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4684,13 +4792,22 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,7 +4815,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,7 +4829,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,7 +4843,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,7 +4857,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>135</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,47 +4868,83 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,7 +4952,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4786,7 +4963,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +4974,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,7 +4985,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,39 +4996,54 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4888,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +5113,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +5121,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +5129,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +5137,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +5145,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +5153,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +5161,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +5169,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +5185,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,7 +5193,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,7 +5201,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +5209,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5225,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5233,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5241,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5249,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +5257,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5265,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5273,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5281,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +5289,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5297,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5305,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5313,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5321,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5329,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5337,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +5353,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5361,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5369,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5220,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>5</v>
@@ -5231,10 +5432,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,13 +5454,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,13 +5468,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5281,13 +5482,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5295,13 +5496,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +5510,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
@@ -5320,13 +5521,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
@@ -5345,7 +5546,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
@@ -5356,13 +5557,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,10 +5582,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5593,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
@@ -5403,13 +5604,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,13 +5618,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,13 +5632,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,7 +5646,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
@@ -5456,7 +5657,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
@@ -5467,13 +5668,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5481,13 +5682,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5495,7 +5696,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -5506,13 +5707,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5721,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
@@ -5531,13 +5732,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,7 +5752,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5597,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,7 +5822,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,7 +5838,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5645,7 +5846,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,7 +5854,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5862,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,7 +5870,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,7 +5878,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,7 +5886,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,7 +5894,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,7 +5902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5709,7 +5910,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,7 +5918,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +5926,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,7 +5934,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,7 +5942,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +5950,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,7 +5958,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/error_coding/responses_to_code.xlsx
+++ b/data/error_coding/responses_to_code.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="436">
   <si>
     <t xml:space="preserve">Response</t>
   </si>
@@ -979,30 +979,60 @@
     <t xml:space="preserve">6000033330444442200055500</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">3333044444600005550022000</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrong order; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bars from c</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2200055500600000000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">partially right bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">3333044444220005550060000</t>
   </si>
   <si>
     <t xml:space="preserve">0000033000444006666022222</t>
   </si>
   <si>
+    <t xml:space="preserve">ordered but wrong bars</t>
+  </si>
+  <si>
     <t xml:space="preserve">3333044444600002200055500</t>
   </si>
   <si>
     <t xml:space="preserve">4444433330600002200055500</t>
   </si>
   <si>
-    <t xml:space="preserve">wrong order; right bars</t>
-  </si>
-  <si>
     <t xml:space="preserve">6000033330444440000055500</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; partially bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">5550050500505005050055500</t>
   </si>
   <si>
@@ -1018,6 +1048,27 @@
     <t xml:space="preserve">0002200555000064444403333</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrong order; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bars from c mirrored</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">6000044444333302200055500</t>
   </si>
   <si>
@@ -1030,6 +1081,27 @@
     <t xml:space="preserve">0000033330444442200055500</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrong order; most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bars from c</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">6000033330444402200055500</t>
   </si>
   <si>
@@ -1045,6 +1117,9 @@
     <t xml:space="preserve">0000033300600004444422000</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong bars</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666044444220001100077700</t>
   </si>
   <si>
@@ -1060,6 +1135,27 @@
     <t xml:space="preserve">0000022000555006660044444</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wrong order; some </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bars from c</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2200033330444445550060000</t>
   </si>
   <si>
@@ -1261,6 +1357,9 @@
     <t xml:space="preserve">0000006660060600000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">partial copy?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0666060006600060666000000</t>
   </si>
   <si>
@@ -1277,6 +1376,9 @@
   </si>
   <si>
     <t xml:space="preserve">6000606060000000606060006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artifacts of inputs</t>
   </si>
   <si>
     <t xml:space="preserve">0060000000600060000000600</t>
@@ -1322,7 +1424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1351,6 +1453,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2407,7 +2515,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2439,13 +2547,25 @@
       <c r="B2" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,7 +2573,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2461,6 +2587,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2469,7 +2601,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,6 +2615,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2485,13 +2629,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,7 +2643,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
@@ -2521,7 +2671,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,13 +2685,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,21 +2699,27 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,39 +2727,66 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>333</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>334</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,21 +2796,39 @@
       <c r="B20" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,71 +2836,125 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>341</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>343</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>345</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>350</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,15 +2962,27 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>345</v>
+        <v>353</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,7 +3060,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2795,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,7 +3076,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,7 +3100,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,7 +3108,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2843,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,7 +3140,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +3148,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2883,7 +3156,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,7 +3164,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,7 +3172,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2951,13 +3224,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
@@ -2976,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
@@ -2990,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>122</v>
@@ -3004,13 +3277,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,13 +3291,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>122</v>
@@ -3046,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,13 +3333,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,13 +3347,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
@@ -3099,13 +3372,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
@@ -3124,13 +3397,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,7 +3411,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
@@ -3187,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,7 +3484,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +3508,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +3524,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,7 +3548,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,7 +3572,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +3580,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,7 +3588,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3604,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,7 +3620,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3642,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3399,10 +3672,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,7 +3683,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>407</v>
+        <v>415</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3697,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,13 +3711,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
@@ -3449,44 +3734,74 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>422</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>424</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,10 +3809,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>387</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -3507,13 +3828,19 @@
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,7 +3848,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
@@ -3530,28 +3857,46 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>428</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>429</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3559,7 +3904,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,14 +3915,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>432</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>423</v>
       </c>
     </row>
@@ -3583,13 +3940,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data/error_coding/responses_to_code.xlsx
+++ b/data/error_coding/responses_to_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Item 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="446">
   <si>
     <t xml:space="preserve">Response</t>
   </si>
@@ -136,12 +136,12 @@
     <t xml:space="preserve">700000770</t>
   </si>
   <si>
+    <t xml:space="preserve">700770700</t>
+  </si>
+  <si>
     <t xml:space="preserve">could be partial, so then considered concept, but forgetting one element in the top row</t>
   </si>
   <si>
-    <t xml:space="preserve">700770700</t>
-  </si>
-  <si>
     <t xml:space="preserve">555555555</t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">505505000</t>
   </si>
   <si>
-    <t xml:space="preserve">duplicate_C</t>
+    <t xml:space="preserve">duplicate</t>
   </si>
   <si>
     <t xml:space="preserve">partial duplicate C, changed to next color 4 to 5</t>
@@ -253,84 +253,84 @@
     <t xml:space="preserve">000500500</t>
   </si>
   <si>
+    <t xml:space="preserve">partial duplicate B, changed to next color 4 to 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000400404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial missing one pixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">044400400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404404400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A or B or C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">505505505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">004404400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct! B + (C – A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400404004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial, forgot to move left column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440404000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400400400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000404000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove top row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000404400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B + C and then remove top row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000800800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial duplicate B, changed color to 4+4 = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660600600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partially correct, wrong color, but why wrong color?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700770770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A or C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partial matrix of A and C, one pixel off</t>
+  </si>
+  <si>
     <t xml:space="preserve">duplicate_B</t>
   </si>
   <si>
-    <t xml:space="preserve">partial duplicate B, changed to next color 4 to 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000400404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial missing one pixel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">044400400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">404404400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A or B or C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">505505505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">004404400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correct! B + (C – A)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400404004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial, forgot to move left column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">440404000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400400400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000404000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove top row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000404400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B + C and then remove top row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000800800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial duplicate B, changed color to 4+4 = 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">660600600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partially correct, wrong color, but why wrong color?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000000100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700770770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A or C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partial matrix of A and C, one pixel off</t>
-  </si>
-  <si>
     <t xml:space="preserve">duplicate B, one pixel off</t>
   </si>
   <si>
@@ -388,6 +388,9 @@
     <t xml:space="preserve">030030077</t>
   </si>
   <si>
+    <t xml:space="preserve">color flip</t>
+  </si>
+  <si>
     <t xml:space="preserve">220270000</t>
   </si>
   <si>
@@ -397,48 +400,87 @@
     <t xml:space="preserve">060060077</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong colors</t>
+  </si>
+  <si>
     <t xml:space="preserve">050050110</t>
   </si>
   <si>
+    <t xml:space="preserve">similar but wrong colors and orientation</t>
+  </si>
+  <si>
     <t xml:space="preserve">030030770</t>
   </si>
   <si>
+    <t xml:space="preserve">similar but wrong orientation</t>
+  </si>
+  <si>
     <t xml:space="preserve">050050033</t>
   </si>
   <si>
     <t xml:space="preserve">550001001</t>
   </si>
   <si>
+    <t xml:space="preserve">mix of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">011050050</t>
   </si>
   <si>
+    <t xml:space="preserve">flip inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">500500110</t>
   </si>
   <si>
+    <t xml:space="preserve">duplicate_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shifted copy</t>
+  </si>
+  <si>
     <t xml:space="preserve">070070011</t>
   </si>
   <si>
     <t xml:space="preserve">033070070</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong orientation</t>
+  </si>
+  <si>
     <t xml:space="preserve">010010550</t>
   </si>
   <si>
+    <t xml:space="preserve">flipped c</t>
+  </si>
+  <si>
     <t xml:space="preserve">555100100</t>
   </si>
   <si>
+    <t xml:space="preserve">odd combination of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">770003003</t>
   </si>
   <si>
+    <t xml:space="preserve">colorflip b</t>
+  </si>
+  <si>
     <t xml:space="preserve">007007033</t>
   </si>
   <si>
+    <t xml:space="preserve">misplaced line</t>
+  </si>
+  <si>
     <t xml:space="preserve">000007007</t>
   </si>
   <si>
     <t xml:space="preserve">300300770</t>
   </si>
   <si>
+    <t xml:space="preserve">colorflip and misplacement</t>
+  </si>
+  <si>
     <t xml:space="preserve">030030044</t>
   </si>
   <si>
@@ -583,18 +625,30 @@
     <t xml:space="preserve">770000000</t>
   </si>
   <si>
+    <t xml:space="preserve">duplicate_a</t>
+  </si>
+  <si>
     <t xml:space="preserve">000333440</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot pixel</t>
+  </si>
+  <si>
     <t xml:space="preserve">000330440</t>
   </si>
   <si>
+    <t xml:space="preserve">got one out of two transformations</t>
+  </si>
+  <si>
     <t xml:space="preserve">444333000</t>
   </si>
   <si>
     <t xml:space="preserve">300400000</t>
   </si>
   <si>
+    <t xml:space="preserve">reverse transformation?</t>
+  </si>
+  <si>
     <t xml:space="preserve">000434000</t>
   </si>
   <si>
@@ -610,6 +664,9 @@
     <t xml:space="preserve">330444000</t>
   </si>
   <si>
+    <t xml:space="preserve">merging of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">440330000</t>
   </si>
   <si>
@@ -619,12 +676,21 @@
     <t xml:space="preserve">033044000</t>
   </si>
   <si>
+    <t xml:space="preserve">copy and shift</t>
+  </si>
+  <si>
     <t xml:space="preserve">550330000</t>
   </si>
   <si>
+    <t xml:space="preserve">copy and color transformation</t>
+  </si>
+  <si>
     <t xml:space="preserve">000300440</t>
   </si>
   <si>
+    <t xml:space="preserve">partial recovery of one of the two rules</t>
+  </si>
+  <si>
     <t xml:space="preserve">000330400</t>
   </si>
   <si>
@@ -634,9 +700,15 @@
     <t xml:space="preserve">330000440</t>
   </si>
   <si>
+    <t xml:space="preserve">copy and partial shift</t>
+  </si>
+  <si>
     <t xml:space="preserve">000440000</t>
   </si>
   <si>
+    <t xml:space="preserve">partial copy</t>
+  </si>
+  <si>
     <t xml:space="preserve">333443333</t>
   </si>
   <si>
@@ -649,6 +721,12 @@
     <t xml:space="preserve">000443000</t>
   </si>
   <si>
+    <t xml:space="preserve">kind of a mix between b and c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong task</t>
+  </si>
+  <si>
     <t xml:space="preserve">0100155555000000000000000</t>
   </si>
   <si>
@@ -715,15 +793,27 @@
     <t xml:space="preserve">5550000500005005550000500</t>
   </si>
   <si>
+    <t xml:space="preserve">sloppy drawing</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000005555050050555500000</t>
   </si>
   <si>
+    <t xml:space="preserve">b shape c color</t>
+  </si>
+  <si>
     <t xml:space="preserve">5500000500005000000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">partial duplicate (might have given up)</t>
+  </si>
+  <si>
     <t xml:space="preserve">5550000500005005050000500</t>
   </si>
   <si>
+    <t xml:space="preserve">a hint of concepts</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000055500505005050055500</t>
   </si>
   <si>
@@ -736,18 +826,27 @@
     <t xml:space="preserve">5550000500005000050055500</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot to close</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000000555005000055500000</t>
   </si>
   <si>
     <t xml:space="preserve">5500000500005005550000500</t>
   </si>
   <si>
+    <t xml:space="preserve">imperfect copy</t>
+  </si>
+  <si>
     <t xml:space="preserve">5000000500000005000000500</t>
   </si>
   <si>
     <t xml:space="preserve">5550000500005005550055500</t>
   </si>
   <si>
+    <t xml:space="preserve">some confusion in drawing rectangle</t>
+  </si>
+  <si>
     <t xml:space="preserve">5500005000050005500005000</t>
   </si>
   <si>
@@ -772,9 +871,15 @@
     <t xml:space="preserve">5555050050500505550000050</t>
   </si>
   <si>
+    <t xml:space="preserve">drew rectangle but copied extra pixel</t>
+  </si>
+  <si>
     <t xml:space="preserve">5555550005555550000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">mixed inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">5555550505555555555555555</t>
   </si>
   <si>
@@ -904,18 +1009,27 @@
     <t xml:space="preserve">6000033330444442200055500</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">3333044444600005550022000</t>
   </si>
   <si>
     <t xml:space="preserve">2200055500600000000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">partially right bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">3333044444220005550060000</t>
   </si>
   <si>
     <t xml:space="preserve">0000033000444006666022222</t>
   </si>
   <si>
+    <t xml:space="preserve">ordered but wrong bars</t>
+  </si>
+  <si>
     <t xml:space="preserve">3333044444600002200055500</t>
   </si>
   <si>
@@ -925,6 +1039,9 @@
     <t xml:space="preserve">6000033330444440000055500</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; partially bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">5550050500505005050055500</t>
   </si>
   <si>
@@ -934,9 +1051,15 @@
     <t xml:space="preserve">0000022000555006666033333</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot one color</t>
+  </si>
+  <si>
     <t xml:space="preserve">0002200555000064444403333</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; bars from c mirrored</t>
+  </si>
+  <si>
     <t xml:space="preserve">6000044444333302200055500</t>
   </si>
   <si>
@@ -949,6 +1072,9 @@
     <t xml:space="preserve">0000033330444442200055500</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; most bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">6000033330444402200055500</t>
   </si>
   <si>
@@ -964,6 +1090,9 @@
     <t xml:space="preserve">0000033300600004444422000</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong bars</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666044444220001100077700</t>
   </si>
   <si>
@@ -979,6 +1108,9 @@
     <t xml:space="preserve">0000022000555006660044444</t>
   </si>
   <si>
+    <t xml:space="preserve">wrong order; some bars from c</t>
+  </si>
+  <si>
     <t xml:space="preserve">2200033330444445550060000</t>
   </si>
   <si>
@@ -1054,27 +1186,45 @@
     <t xml:space="preserve">6666666666660666666660666</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot pixels where c had other color</t>
+  </si>
+  <si>
     <t xml:space="preserve">0005500055000000000500055</t>
   </si>
   <si>
     <t xml:space="preserve">6666676666660666666760666</t>
   </si>
   <si>
+    <t xml:space="preserve">partial duplicate</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666676666660660000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">maybe started copying c?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000070000000000000700000</t>
   </si>
   <si>
+    <t xml:space="preserve">copied two pixels from c?</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666676666666666676666666</t>
   </si>
   <si>
     <t xml:space="preserve">0000070000006000000706000</t>
   </si>
   <si>
+    <t xml:space="preserve">mixup of colors and missing pixels</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666066666666666666666666</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot one pixel</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000000000006000000006000</t>
   </si>
   <si>
@@ -1084,12 +1234,18 @@
     <t xml:space="preserve">6666660666666666666660666</t>
   </si>
   <si>
+    <t xml:space="preserve">forgot two pixels</t>
+  </si>
+  <si>
     <t xml:space="preserve">4444476666448446666748666</t>
   </si>
   <si>
     <t xml:space="preserve">6666666866666676666666666</t>
   </si>
   <si>
+    <t xml:space="preserve">apparent relation to c</t>
+  </si>
+  <si>
     <t xml:space="preserve">6666677777668666666766666</t>
   </si>
   <si>
@@ -1153,15 +1309,24 @@
     <t xml:space="preserve">0000006060060600606000000</t>
   </si>
   <si>
+    <t xml:space="preserve">correct?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0000006660060600000000000</t>
   </si>
   <si>
+    <t xml:space="preserve">partial copy?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0666060006600060666000000</t>
   </si>
   <si>
     <t xml:space="preserve">0060006060600060606000600</t>
   </si>
   <si>
+    <t xml:space="preserve">mix of a and c?</t>
+  </si>
+  <si>
     <t xml:space="preserve">0031300313003030031300303</t>
   </si>
   <si>
@@ -1171,6 +1336,9 @@
     <t xml:space="preserve">6000606060000000606060006</t>
   </si>
   <si>
+    <t xml:space="preserve">artifacts of inputs</t>
+  </si>
+  <si>
     <t xml:space="preserve">0060000000600060000000600</t>
   </si>
   <si>
@@ -1202,6 +1370,9 @@
   </si>
   <si>
     <t xml:space="preserve">0070007070700070707000707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus extra pixel</t>
   </si>
 </sst>
 </file>
@@ -1291,12 +1462,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1319,119 +1494,119 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1453,304 +1628,456 @@
   </sheetPr>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.11"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>225</v>
+      <c r="B2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>226</v>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>227</v>
+      <c r="B4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>228</v>
+      <c r="B5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>232</v>
+      <c r="B9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>233</v>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="B11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>235</v>
+      <c r="B12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>236</v>
+      <c r="B13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>237</v>
+      <c r="B14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>238</v>
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>239</v>
+      <c r="B16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>240</v>
+      <c r="B17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>243</v>
+      <c r="B19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>244</v>
+      <c r="B21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>245</v>
+      <c r="B22" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>246</v>
+      <c r="B23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>247</v>
+      <c r="B24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>248</v>
+      <c r="B25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>249</v>
+      <c r="B26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>250</v>
+      <c r="B27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>251</v>
+      <c r="B28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>252</v>
+      <c r="B29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>253</v>
+      <c r="B30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>254</v>
+      <c r="B31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>255</v>
+      <c r="B32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>256</v>
+      <c r="B33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>257</v>
+      <c r="B34" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>258</v>
+      <c r="B35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>259</v>
+      <c r="B36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1771,248 +2098,248 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>260</v>
+      <c r="B2" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>261</v>
+      <c r="B3" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>262</v>
+      <c r="B4" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>263</v>
+      <c r="B5" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>264</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>265</v>
+      <c r="B7" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>266</v>
+      <c r="B8" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>267</v>
+      <c r="B9" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>268</v>
+      <c r="B10" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>269</v>
+      <c r="B11" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>270</v>
+      <c r="B12" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>271</v>
+      <c r="B13" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>272</v>
+      <c r="B14" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>273</v>
+      <c r="B15" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>274</v>
+      <c r="B16" s="1" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>275</v>
+      <c r="B17" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>276</v>
+      <c r="B18" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>277</v>
+      <c r="B19" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>278</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>279</v>
+      <c r="B21" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>280</v>
+      <c r="B22" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>281</v>
+      <c r="B23" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>282</v>
+      <c r="B24" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>283</v>
+      <c r="B25" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>284</v>
+      <c r="B26" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>285</v>
+      <c r="B27" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>286</v>
+      <c r="B28" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>287</v>
+      <c r="B29" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2033,280 +2360,475 @@
   </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.03"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="B11" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>300</v>
+      <c r="B14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>305</v>
+      <c r="B19" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>307</v>
+      <c r="B22" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="B23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="B24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="B25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="B27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="B28" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="B29" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="B30" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>316</v>
+      <c r="B31" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="B32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>318</v>
+      <c r="B33" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2327,176 +2849,176 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>319</v>
+      <c r="B2" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>320</v>
+      <c r="B3" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>321</v>
+      <c r="B4" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>322</v>
+      <c r="B5" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>323</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>324</v>
+      <c r="B7" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>325</v>
+      <c r="B8" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>326</v>
+      <c r="B9" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>327</v>
+      <c r="B10" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>328</v>
+      <c r="B11" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>329</v>
+      <c r="B12" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>330</v>
+      <c r="B13" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>331</v>
+      <c r="B14" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>332</v>
+      <c r="B15" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>333</v>
+      <c r="B16" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>334</v>
+      <c r="B17" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>335</v>
+      <c r="B18" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>336</v>
+      <c r="B19" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>337</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2517,144 +3039,228 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.51"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>338</v>
+      <c r="B2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>339</v>
+      <c r="B3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>320</v>
+      <c r="B4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>340</v>
+      <c r="B5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>341</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>343</v>
+      <c r="B8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>344</v>
+      <c r="B9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>346</v>
+      <c r="B11" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>347</v>
+      <c r="B12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>348</v>
+      <c r="B13" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>350</v>
+      <c r="B15" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>351</v>
+      <c r="B16" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2675,192 +3281,192 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>352</v>
+      <c r="B2" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>353</v>
+      <c r="B3" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>354</v>
+      <c r="B4" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>355</v>
+      <c r="B5" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>356</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>357</v>
+      <c r="B7" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>358</v>
+      <c r="B8" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>359</v>
+      <c r="B9" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>347</v>
+      <c r="B10" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>320</v>
+      <c r="B11" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>360</v>
+      <c r="B12" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>361</v>
+      <c r="B13" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>362</v>
+      <c r="B14" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>363</v>
+      <c r="B15" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>364</v>
+      <c r="B16" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>365</v>
+      <c r="B17" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>366</v>
+      <c r="B18" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>367</v>
+      <c r="B19" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>368</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>369</v>
+      <c r="B21" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>370</v>
+      <c r="B22" s="1" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -2881,197 +3487,312 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>371</v>
+      <c r="B2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>372</v>
+      <c r="B3" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>373</v>
+      <c r="B4" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>374</v>
+      <c r="B5" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>380</v>
+      <c r="B11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>381</v>
+      <c r="B14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>384</v>
+      <c r="B18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>385</v>
+      <c r="B19" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>387</v>
+      <c r="B21" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>388</v>
+      <c r="B22" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3090,218 +3811,217 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3320,220 +4040,220 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3555,281 +4275,282 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3850,125 +4571,124 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>92</v>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -3979,10 +4699,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -3993,10 +4713,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -4007,10 +4727,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -4021,10 +4741,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -4034,33 +4754,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -4068,10 +4788,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -4081,11 +4801,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -4095,11 +4815,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -4109,11 +4829,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -4123,33 +4843,33 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -4177,301 +4897,464 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>117</v>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>118</v>
+      <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>119</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>123</v>
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>124</v>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>127</v>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>128</v>
+      <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>129</v>
+      <c r="B17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>130</v>
+      <c r="B18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>131</v>
+      <c r="B19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>132</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="B24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>138</v>
+      <c r="B26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>139</v>
+      <c r="B27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>140</v>
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>141</v>
+      <c r="B29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>142</v>
+      <c r="B30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="B31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="B32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="B33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="B34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>147</v>
+      <c r="B35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4492,312 +5375,312 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>148</v>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>94</v>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>149</v>
+      <c r="B5" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>150</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>151</v>
+      <c r="B7" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>152</v>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>153</v>
+      <c r="B9" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>154</v>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>155</v>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>156</v>
+      <c r="B12" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>157</v>
+      <c r="B14" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>158</v>
+      <c r="B15" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>159</v>
+      <c r="B16" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>160</v>
+      <c r="B17" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>161</v>
+      <c r="B19" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>162</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>163</v>
+      <c r="B21" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>164</v>
+      <c r="B22" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>165</v>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>166</v>
+      <c r="B24" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>167</v>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>168</v>
+      <c r="B26" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>169</v>
+      <c r="B27" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>170</v>
+      <c r="B28" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>171</v>
+      <c r="B29" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>172</v>
+      <c r="B30" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>173</v>
+      <c r="B31" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>174</v>
+      <c r="B32" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>175</v>
+      <c r="B33" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>176</v>
+      <c r="B35" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>177</v>
+      <c r="B36" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>178</v>
+      <c r="B37" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4818,240 +5701,369 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.49"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>179</v>
+      <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>180</v>
+      <c r="B3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>181</v>
+      <c r="B4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>184</v>
+      <c r="B7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>185</v>
+      <c r="B8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>187</v>
+      <c r="B10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>188</v>
+      <c r="B11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>189</v>
+      <c r="B12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>190</v>
+      <c r="B13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>191</v>
+      <c r="B15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>192</v>
+      <c r="B16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>193</v>
+      <c r="B17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>194</v>
+      <c r="B18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>195</v>
+      <c r="B19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>196</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>198</v>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>199</v>
+      <c r="B23" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>200</v>
+      <c r="B24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>201</v>
+      <c r="B25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>202</v>
+      <c r="B26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>203</v>
+      <c r="B27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5072,192 +6084,192 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>204</v>
+      <c r="B2" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>205</v>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>206</v>
+      <c r="B4" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>207</v>
+      <c r="B5" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>208</v>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>209</v>
+      <c r="B7" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>210</v>
+      <c r="B8" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>211</v>
+      <c r="B9" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>212</v>
+      <c r="B10" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>213</v>
+      <c r="B11" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>214</v>
+      <c r="B12" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>215</v>
+      <c r="B13" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>216</v>
+      <c r="B14" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>217</v>
+      <c r="B15" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>218</v>
+      <c r="B16" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>219</v>
+      <c r="B17" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>220</v>
+      <c r="B18" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>221</v>
+      <c r="B19" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>222</v>
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>223</v>
+      <c r="B21" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>224</v>
+      <c r="B22" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
